--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakiyoshi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LineAdventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EAE3FD-36D8-4388-8869-B85F73C3D9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C1226-6719-48FD-8F85-3A17DF45A0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87A11AA9-C9DC-49A8-9D7E-405F71AF8179}"/>
   </bookViews>
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -208,17 +208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -250,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,13 +300,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +623,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -722,7 +708,7 @@
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -743,7 +729,7 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
@@ -761,7 +747,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
@@ -774,12 +760,12 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="14"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="12"/>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
@@ -787,7 +773,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="7"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
     </row>
@@ -807,7 +793,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="8"/>
       <c r="P9" s="9"/>
     </row>
